--- a/excels/Plymouth.xlsx
+++ b/excels/Plymouth.xlsx
@@ -1763,7 +1763,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2525.831335790653</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2525.831335790653</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2525.831335790653</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2525.831335790653</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2525.831335790653</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2107.544900858765</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2107.544900858765</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2107.544900858765</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2107.544900858765</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1924.762570161765</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2107.544900858765</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2107.544900858765</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2107.544900858765</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2107.544900858765</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2107.544900858765</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2627.203864747172</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1703.28384844991</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1703.28384844991</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2039.107518864074</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2039.107518864074</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2039.107518864074</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2039.107518864074</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2039.107518864074</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2039.107518864074</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2039.107518864074</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2739.420873570494</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1632.735582774426</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1632.735582774426</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>2739.420873570494</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1632.735582774426</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1632.735582774426</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1817.285760094884</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2436.354593063942</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2102.53236916384</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>2102.53236916384</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>2436.354593063942</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2436.354593063942</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2436.354593063942</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>2436.354593063942</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>2436.354593063942</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>2436.354593063942</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2436.354593063942</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2075.245847395937</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1560.047647409172</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2075.245847395937</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>3248.472790751922</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>1560.047647409172</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2328.431272614275</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1329.846756949394</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1329.846756949394</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>1329.846756949394</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2494.9210970398</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>2494.9210970398</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1971.240321620012</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1971.240321620012</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>1971.240321620012</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>2494.9210970398</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>1971.240321620012</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>3048.68282402529</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>1971.240321620012</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>1971.240321620012</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>1971.240321620012</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>1971.240321620012</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>3048.68282402529</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>2494.9210970398</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>2494.9210970398</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>1971.240321620012</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>1971.240321620012</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>3466.456223942823</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>3048.68282402529</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>3048.68282402529</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>2494.9210970398</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>3048.68282402529</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>3466.456223942823</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>1960.233989787052</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>1971.240321620012</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>2494.9210970398</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2494.9210970398</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>5966.05122096486</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>5966.05122096486</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>5966.05122096486</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>5966.05122096486</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>3726.315789473684</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>3706.052855924979</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2925.312686122692</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>2437.400833829661</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>3988.718392982837</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>3660.656436487639</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>3108.6503871352</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>337</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>3238.713519952353</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>2377.66410912191</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>1864.745423340961</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>341</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>1868.017256621341</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>2075.170149731764</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>343</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>3480.305045296386</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>2437.400833829661</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>3988.718392982837</v>
